--- a/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 125/S&P500_returns_compared_semester.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 125/S&P500_returns_compared_semester.xlsx
@@ -501,13 +501,13 @@
         <v>0.06475160574547126</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06427945322105214</v>
+        <v>0.05929980902570103</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.7291750049799269</v>
+        <v>-8.419554475915882</v>
       </c>
       <c r="I2" t="n">
-        <v>193.0017674278817</v>
+        <v>-0.2262087369868314</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.06840507148266159</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06772595609611541</v>
+        <v>0.0741701026178329</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.9927851427190031</v>
+        <v>8.427783218723121</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.04489303740573931</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04689069172097919</v>
+        <v>-0.03301802634224066</v>
       </c>
       <c r="H4" t="n">
-        <v>4.449808769197907</v>
+        <v>26.45178796028735</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.02707184252639069</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.03575451107288882</v>
+        <v>-0.03808990438667764</v>
       </c>
       <c r="H5" t="n">
-        <v>32.07269153562019</v>
+        <v>-40.69934231312891</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.1060411983308413</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1065980644813987</v>
+        <v>-0.09143184112761711</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5251413217908181</v>
+        <v>13.77705781638189</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.09137116790774705</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.08761827294796676</v>
+        <v>-0.08957245007388027</v>
       </c>
       <c r="H7" t="n">
-        <v>-4.107307639505498</v>
+        <v>1.968583607996397</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.3669045294234091</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3620730743796665</v>
+        <v>-0.3556989430201434</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.316815317416561</v>
+        <v>3.054087781602297</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3900907247280979</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3782509121867969</v>
+        <v>-0.3508006414752723</v>
       </c>
       <c r="H9" t="n">
-        <v>-3.035143311739501</v>
+        <v>10.07203728830305</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.02019099792724464</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01798263865400223</v>
+        <v>0.01792757505188416</v>
       </c>
       <c r="H10" t="n">
-        <v>-10.93734584689631</v>
+        <v>-11.2100594706433</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>0.02269447604523495</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03528035115168444</v>
+        <v>0.02791102977143602</v>
       </c>
       <c r="H11" t="n">
-        <v>55.45787918330058</v>
+        <v>22.98600644404992</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2217475509599964</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2152513054481038</v>
+        <v>0.2206184719117437</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.929568098393352</v>
+        <v>-0.5091731761476816</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2252068013777494</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2273116079059125</v>
+        <v>0.2277134148328923</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9346105514072044</v>
+        <v>1.113027421822159</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0421051027109104</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0563740433732928</v>
+        <v>-0.04851302498297466</v>
       </c>
       <c r="H14" t="n">
-        <v>33.88886321059844</v>
+        <v>-15.21887338943321</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.0476962964829882</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.05751086901596975</v>
+        <v>-0.0487118052849469</v>
       </c>
       <c r="H15" t="n">
-        <v>20.57722141274032</v>
+        <v>-2.129114578782667</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.2125733987723978</v>
       </c>
       <c r="G16" t="n">
-        <v>0.21540124129736</v>
+        <v>0.2135892290238797</v>
       </c>
       <c r="H16" t="n">
-        <v>1.330289933403168</v>
+        <v>0.4778727053094423</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.220547964401221</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2185001927485745</v>
+        <v>0.2207698477432422</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.9284926561014258</v>
+        <v>0.1006054817253016</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.0730202405914521</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07157568473541104</v>
+        <v>0.07249783660583334</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.978295119737198</v>
+        <v>-0.7154235337864823</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.07533801278860332</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07549361116575104</v>
+        <v>0.08048572690812149</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2065336891541432</v>
+        <v>6.83282439896913</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>-0.07498197610986357</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.08695853982724304</v>
+        <v>-0.09048711754374515</v>
       </c>
       <c r="H20" t="n">
-        <v>15.97259013263589</v>
+        <v>-20.67849133658928</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.08656883138589506</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.09803109941195708</v>
+        <v>-0.08066702436410382</v>
       </c>
       <c r="H21" t="n">
-        <v>13.2406408202128</v>
+        <v>6.817473364614282</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.07350189683413895</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0644258141062104</v>
+        <v>0.06718170482092298</v>
       </c>
       <c r="H22" t="n">
-        <v>-12.34809320419203</v>
+        <v>-8.598678789851956</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.06833131635347874</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06918169107441784</v>
+        <v>0.06974205822852109</v>
       </c>
       <c r="H23" t="n">
-        <v>1.244487544393411</v>
+        <v>2.06456124413668</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.0666121311904289</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06149362082876091</v>
+        <v>0.0707439371626922</v>
       </c>
       <c r="H24" t="n">
-        <v>-7.684051343493774</v>
+        <v>6.202783034296573</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.05478005394628295</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05691298661058212</v>
+        <v>0.06821457145943334</v>
       </c>
       <c r="H25" t="n">
-        <v>3.8936300909647</v>
+        <v>24.52446930104196</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.119349034221139</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1170860555902125</v>
+        <v>0.1131917036803619</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.896101334790431</v>
+        <v>-5.159095405303686</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.1138601832942567</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1230969565375148</v>
+        <v>0.1131917036803619</v>
       </c>
       <c r="H27" t="n">
-        <v>8.112382200709153</v>
+        <v>-0.5871056892357285</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.1292533789032894</v>
       </c>
       <c r="G28" t="n">
-        <v>0.135715742648151</v>
+        <v>0.1374004353846303</v>
       </c>
       <c r="H28" t="n">
-        <v>4.999763874410523</v>
+        <v>6.303167120634215</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.1508404131181501</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1339724243629483</v>
+        <v>0.1424449916137252</v>
       </c>
       <c r="H29" t="n">
-        <v>-11.1826720747506</v>
+        <v>-5.56576406208126</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.08430730692358705</v>
       </c>
       <c r="G30" t="n">
-        <v>0.08978004416316097</v>
+        <v>0.09010600600179144</v>
       </c>
       <c r="H30" t="n">
-        <v>6.491415085212251</v>
+        <v>6.878050420303561</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.08168804472812186</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0818920088634571</v>
+        <v>0.09010600600179144</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2496866414346032</v>
+        <v>10.30501011706996</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.05335989709435844</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0448548438099589</v>
+        <v>0.04892405057673115</v>
       </c>
       <c r="H32" t="n">
-        <v>-15.9390361442409</v>
+        <v>-8.313071724600976</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.05524291083483257</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04380678109469641</v>
+        <v>0.04982525213316048</v>
       </c>
       <c r="H33" t="n">
-        <v>-20.70153358560042</v>
+        <v>-9.806975446804417</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.01735724411428837</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01751899489499673</v>
+        <v>0.02238220178775172</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9318920656027737</v>
+        <v>28.95020453924961</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.01690068813636874</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01991150495747382</v>
+        <v>0.02619151166756904</v>
       </c>
       <c r="H35" t="n">
-        <v>17.81475876491725</v>
+        <v>54.9730487672114</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>-0.02904570050041436</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.02949676953619366</v>
+        <v>-0.03096705443833292</v>
       </c>
       <c r="H36" t="n">
-        <v>1.55296318562834</v>
+        <v>-6.614934068782915</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>-0.03326387867410367</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.03434259853143631</v>
+        <v>-0.02653469482251133</v>
       </c>
       <c r="H37" t="n">
-        <v>3.242916642106534</v>
+        <v>20.22970296855697</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.07828272299359128</v>
       </c>
       <c r="G38" t="n">
-        <v>0.07783589710749451</v>
+        <v>0.0806357316957312</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.5707848028400128</v>
+        <v>3.005782900950637</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.07774513092769705</v>
       </c>
       <c r="G39" t="n">
-        <v>0.08107627056093397</v>
+        <v>0.07944247953606812</v>
       </c>
       <c r="H39" t="n">
-        <v>4.284692293250978</v>
+        <v>2.183221750503703</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.06620903162762284</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06599581644081207</v>
+        <v>0.06936643804804633</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.3220333866381805</v>
+        <v>4.768845492532772</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.06502283945517741</v>
       </c>
       <c r="G41" t="n">
-        <v>0.06230096005866078</v>
+        <v>0.06919037987643975</v>
       </c>
       <c r="H41" t="n">
-        <v>-4.186035890347297</v>
+        <v>6.409348555341356</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.07779129312774727</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07967446663348601</v>
+        <v>0.08319789030811463</v>
       </c>
       <c r="H42" t="n">
-        <v>2.420802418911118</v>
+        <v>6.950131515989528</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.08016449204640863</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08434497108614228</v>
+        <v>0.07505513666577708</v>
       </c>
       <c r="H43" t="n">
-        <v>5.21487622888385</v>
+        <v>-6.373589166726902</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.0882473020929648</v>
       </c>
       <c r="G44" t="n">
-        <v>0.08916119547431142</v>
+        <v>0.08859085479851819</v>
       </c>
       <c r="H44" t="n">
-        <v>1.035604896321784</v>
+        <v>0.389306752053986</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.09038350561601033</v>
       </c>
       <c r="G45" t="n">
-        <v>0.09017926445395022</v>
+        <v>0.08822291693893576</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.2259717198045153</v>
+        <v>-2.390467887198044</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.002736221431388826</v>
       </c>
       <c r="G46" t="n">
-        <v>0.000905183914705364</v>
+        <v>0.001916695164717195</v>
       </c>
       <c r="H46" t="n">
-        <v>-133.0815300370599</v>
+        <v>170.0489785925087</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-4.777339627826626e-05</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.005206241461141943</v>
+        <v>-0.00019809282802377</v>
       </c>
       <c r="H47" t="n">
-        <v>10797.78384357915</v>
+        <v>-314.6509217597518</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.09610514426044459</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.105634120882538</v>
+        <v>-0.09979011981959779</v>
       </c>
       <c r="H48" t="n">
-        <v>9.915157711297869</v>
+        <v>-3.834316661725134</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.1095762031015</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1060237476981244</v>
+        <v>-0.09839599166905444</v>
       </c>
       <c r="H49" t="n">
-        <v>-3.24199534463243</v>
+        <v>10.20313819606377</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.170499290945181</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1692927368400061</v>
+        <v>0.1635259167591644</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.7076593095996082</v>
+        <v>-4.089972543204698</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1698348686233734</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1700601687878097</v>
+        <v>0.1788932423670189</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1326583676617718</v>
+        <v>5.333636029556085</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.07096188459140108</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06484113338591875</v>
+        <v>0.07296547455520383</v>
       </c>
       <c r="H52" t="n">
-        <v>-8.625406781014416</v>
+        <v>2.823473439776055</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06431610809503106</v>
       </c>
       <c r="G53" t="n">
-        <v>0.06968207619393911</v>
+        <v>0.06417439066526878</v>
       </c>
       <c r="H53" t="n">
-        <v>8.343116923336677</v>
+        <v>-0.2203451576281396</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.127802855650489</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1277595602029369</v>
+        <v>-0.1432810377691618</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.03387674503180151</v>
+        <v>-12.11098299790892</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.1164711675885664</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1118989001233252</v>
+        <v>-0.1243431967486445</v>
       </c>
       <c r="H55" t="n">
-        <v>-3.925664660109445</v>
+        <v>-6.758779295392643</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1900208351250397</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1930066453391202</v>
+        <v>0.194518659283254</v>
       </c>
       <c r="H56" t="n">
-        <v>1.57130675281779</v>
+        <v>2.367016309161349</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.1989082743606582</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2025565000236278</v>
+        <v>0.2088423883435634</v>
       </c>
       <c r="H57" t="n">
-        <v>1.834124635938815</v>
+        <v>4.994319122638798</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>

--- a/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 125/S&P500_returns_compared_semester.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 125/S&P500_returns_compared_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.06475160574547126</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05929980902570103</v>
+        <v>0.06416381063653058</v>
       </c>
       <c r="H2" t="n">
-        <v>-8.419554475915882</v>
+        <v>-0.9077691621289075</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2262087369868314</v>
+        <v>83.53132706545931</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.06840507148266159</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0741701026178329</v>
+        <v>0.06417471588793254</v>
       </c>
       <c r="H3" t="n">
-        <v>8.427783218723121</v>
+        <v>-6.18427187200777</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.04489303740573931</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.03301802634224066</v>
+        <v>-0.04825625756548189</v>
       </c>
       <c r="H4" t="n">
-        <v>26.45178796028735</v>
+        <v>-7.491629780685351</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.02707184252639069</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.03808990438667764</v>
+        <v>-0.02343904928767914</v>
       </c>
       <c r="H5" t="n">
-        <v>-40.69934231312891</v>
+        <v>13.4190838143734</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.1060411983308413</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.09143184112761711</v>
+        <v>-0.09827839580595858</v>
       </c>
       <c r="H6" t="n">
-        <v>13.77705781638189</v>
+        <v>7.320553376493639</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.09137116790774705</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.08957245007388027</v>
+        <v>-0.08679936669461225</v>
       </c>
       <c r="H7" t="n">
-        <v>1.968583607996397</v>
+        <v>5.003549060192296</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.3669045294234091</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3556989430201434</v>
+        <v>-0.3591808714796799</v>
       </c>
       <c r="H8" t="n">
-        <v>3.054087781602297</v>
+        <v>2.105086561854916</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3900907247280979</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3508006414752723</v>
+        <v>-0.3691544364765446</v>
       </c>
       <c r="H9" t="n">
-        <v>10.07203728830305</v>
+        <v>5.367030519924915</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.02019099792724464</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01792757505188416</v>
+        <v>0.03031715349703739</v>
       </c>
       <c r="H10" t="n">
-        <v>-11.2100594706433</v>
+        <v>50.15183304104579</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>0.02269447604523495</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02791102977143602</v>
+        <v>0.0407213349722756</v>
       </c>
       <c r="H11" t="n">
-        <v>22.98600644404992</v>
+        <v>79.43280510688707</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2217475509599964</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2206184719117437</v>
+        <v>0.2236250799009378</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5091731761476816</v>
+        <v>0.8466965848385432</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2252068013777494</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2277134148328923</v>
+        <v>0.2300624058376801</v>
       </c>
       <c r="H13" t="n">
-        <v>1.113027421822159</v>
+        <v>2.156064750365229</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0421051027109104</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04851302498297466</v>
+        <v>-0.05454686181870474</v>
       </c>
       <c r="H14" t="n">
-        <v>-15.21887338943321</v>
+        <v>-29.54929048200705</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.0476962964829882</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0487118052849469</v>
+        <v>-0.05228807933285054</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.129114578782667</v>
+        <v>-9.627126608247435</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.2125733987723978</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2135892290238797</v>
+        <v>0.2141657570403719</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4778727053094423</v>
+        <v>0.749086328378764</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.220547964401221</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2207698477432422</v>
+        <v>0.2213484612587544</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1006054817253016</v>
+        <v>0.3629581708934411</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.0730202405914521</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07249783660583334</v>
+        <v>0.07545180653851437</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.7154235337864823</v>
+        <v>3.329988955619679</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.07533801278860332</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08048572690812149</v>
+        <v>0.0863495800482556</v>
       </c>
       <c r="H19" t="n">
-        <v>6.83282439896913</v>
+        <v>14.61621677034472</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>-0.07498197610986357</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.09048711754374515</v>
+        <v>-0.0834552732223411</v>
       </c>
       <c r="H20" t="n">
-        <v>-20.67849133658928</v>
+        <v>-11.30044518973794</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.08656883138589506</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.08066702436410382</v>
+        <v>-0.08606375840519892</v>
       </c>
       <c r="H21" t="n">
-        <v>6.817473364614282</v>
+        <v>0.5834351378092389</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.07350189683413895</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06718170482092298</v>
+        <v>0.07415363741721973</v>
       </c>
       <c r="H22" t="n">
-        <v>-8.598678789851956</v>
+        <v>0.8866989984645759</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.06833131635347874</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06974205822852109</v>
+        <v>0.0697544579652344</v>
       </c>
       <c r="H23" t="n">
-        <v>2.06456124413668</v>
+        <v>2.082707735928478</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.0666121311904289</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0707439371626922</v>
+        <v>0.05910846642883147</v>
       </c>
       <c r="H24" t="n">
-        <v>6.202783034296573</v>
+        <v>-11.26471203893201</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.05478005394628295</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06821457145943334</v>
+        <v>0.06329123637087247</v>
       </c>
       <c r="H25" t="n">
-        <v>24.52446930104196</v>
+        <v>15.53700993601712</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.119349034221139</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1131917036803619</v>
+        <v>0.119047007487078</v>
       </c>
       <c r="H26" t="n">
-        <v>-5.159095405303686</v>
+        <v>-0.2530617327840166</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.1138601832942567</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1131917036803619</v>
+        <v>0.1247438616923543</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.5871056892357285</v>
+        <v>9.55880983431245</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.1292533789032894</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1374004353846303</v>
+        <v>0.1309681445486715</v>
       </c>
       <c r="H28" t="n">
-        <v>6.303167120634215</v>
+        <v>1.326669878909043</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.1508404131181501</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1424449916137252</v>
+        <v>0.147674216408767</v>
       </c>
       <c r="H29" t="n">
-        <v>-5.56576406208126</v>
+        <v>-2.099037415724327</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.08430730692358705</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09010600600179144</v>
+        <v>0.08856910946984774</v>
       </c>
       <c r="H30" t="n">
-        <v>6.878050420303561</v>
+        <v>5.055080872318008</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.08168804472812186</v>
       </c>
       <c r="G31" t="n">
-        <v>0.09010600600179144</v>
+        <v>0.09060846662767325</v>
       </c>
       <c r="H31" t="n">
-        <v>10.30501011706996</v>
+        <v>10.92010701105746</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.05335989709435844</v>
       </c>
       <c r="G32" t="n">
-        <v>0.04892405057673115</v>
+        <v>0.0554815329048789</v>
       </c>
       <c r="H32" t="n">
-        <v>-8.313071724600976</v>
+        <v>3.976086773122307</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.05524291083483257</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04982525213316048</v>
+        <v>0.05485697507196689</v>
       </c>
       <c r="H33" t="n">
-        <v>-9.806975446804417</v>
+        <v>-0.6986159075135691</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.01735724411428837</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02238220178775172</v>
+        <v>0.01817063075344867</v>
       </c>
       <c r="H34" t="n">
-        <v>28.95020453924961</v>
+        <v>4.686150830192713</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.01690068813636874</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02619151166756904</v>
+        <v>0.03180144817480884</v>
       </c>
       <c r="H35" t="n">
-        <v>54.9730487672114</v>
+        <v>88.16658776381431</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>-0.02904570050041436</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.03096705443833292</v>
+        <v>-0.02826839345418108</v>
       </c>
       <c r="H36" t="n">
-        <v>-6.614934068782915</v>
+        <v>2.676151832599769</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>-0.03326387867410367</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.02653469482251133</v>
+        <v>-0.03502393934843685</v>
       </c>
       <c r="H37" t="n">
-        <v>20.22970296855697</v>
+        <v>-5.291206992356573</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.07828272299359128</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0806357316957312</v>
+        <v>0.07248532269285807</v>
       </c>
       <c r="H38" t="n">
-        <v>3.005782900950637</v>
+        <v>-7.405721312489121</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.07774513092769705</v>
       </c>
       <c r="G39" t="n">
-        <v>0.07944247953606812</v>
+        <v>0.07725656677336626</v>
       </c>
       <c r="H39" t="n">
-        <v>2.183221750503703</v>
+        <v>-0.6284176880287971</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.06620903162762284</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06936643804804633</v>
+        <v>0.07121758393240943</v>
       </c>
       <c r="H40" t="n">
-        <v>4.768845492532772</v>
+        <v>7.564756924638334</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.06502283945517741</v>
       </c>
       <c r="G41" t="n">
-        <v>0.06919037987643975</v>
+        <v>0.06114691793410743</v>
       </c>
       <c r="H41" t="n">
-        <v>6.409348555341356</v>
+        <v>-5.960861681135579</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.07779129312774727</v>
       </c>
       <c r="G42" t="n">
-        <v>0.08319789030811463</v>
+        <v>0.08612879324942375</v>
       </c>
       <c r="H42" t="n">
-        <v>6.950131515989528</v>
+        <v>10.71778059786821</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.08016449204640863</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07505513666577708</v>
+        <v>0.08860783083255963</v>
       </c>
       <c r="H43" t="n">
-        <v>-6.373589166726902</v>
+        <v>10.53251704166354</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.0882473020929648</v>
       </c>
       <c r="G44" t="n">
-        <v>0.08859085479851819</v>
+        <v>0.08415764427047931</v>
       </c>
       <c r="H44" t="n">
-        <v>0.389306752053986</v>
+        <v>-4.634314846449596</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.09038350561601033</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08822291693893576</v>
+        <v>0.09324547221413854</v>
       </c>
       <c r="H45" t="n">
-        <v>-2.390467887198044</v>
+        <v>3.166470008684023</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.002736221431388826</v>
       </c>
       <c r="G46" t="n">
-        <v>0.001916695164717195</v>
+        <v>0.0004474921158187565</v>
       </c>
       <c r="H46" t="n">
-        <v>170.0489785925087</v>
+        <v>116.3543823860638</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-4.777339627826626e-05</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.00019809282802377</v>
+        <v>0.00200605051331723</v>
       </c>
       <c r="H47" t="n">
-        <v>-314.6509217597518</v>
+        <v>4299.095458134407</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.09610514426044459</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.09979011981959779</v>
+        <v>-0.09728128883374139</v>
       </c>
       <c r="H48" t="n">
-        <v>-3.834316661725134</v>
+        <v>-1.223810215725243</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.1095762031015</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.09839599166905444</v>
+        <v>-0.1055314843616371</v>
       </c>
       <c r="H49" t="n">
-        <v>10.20313819606377</v>
+        <v>3.691238266502343</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.170499290945181</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1635259167591644</v>
+        <v>0.1666912492339716</v>
       </c>
       <c r="H50" t="n">
-        <v>-4.089972543204698</v>
+        <v>-2.233464837360376</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1698348686233734</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1788932423670189</v>
+        <v>0.1750554836719478</v>
       </c>
       <c r="H51" t="n">
-        <v>5.333636029556085</v>
+        <v>3.073935930172054</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.07096188459140108</v>
       </c>
       <c r="G52" t="n">
-        <v>0.07296547455520383</v>
+        <v>0.07053348262663038</v>
       </c>
       <c r="H52" t="n">
-        <v>2.823473439776055</v>
+        <v>-0.6037071411468897</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06431610809503106</v>
       </c>
       <c r="G53" t="n">
-        <v>0.06417439066526878</v>
+        <v>0.06628213513103204</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.2203451576281396</v>
+        <v>3.056819036836071</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.127802855650489</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1432810377691618</v>
+        <v>-0.1369639202392226</v>
       </c>
       <c r="H54" t="n">
-        <v>-12.11098299790892</v>
+        <v>-7.168121981395307</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.1164711675885664</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1243431967486445</v>
+        <v>-0.1107729393551788</v>
       </c>
       <c r="H55" t="n">
-        <v>-6.758779295392643</v>
+        <v>4.892393844214348</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1900208351250397</v>
       </c>
       <c r="G56" t="n">
-        <v>0.194518659283254</v>
+        <v>0.1858346636261513</v>
       </c>
       <c r="H56" t="n">
-        <v>2.367016309161349</v>
+        <v>-2.203006578796351</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,14 +2318,14 @@
         <v>0.1989082743606582</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2088423883435634</v>
+        <v>0.2029276284079517</v>
       </c>
       <c r="H57" t="n">
-        <v>4.994319122638798</v>
+        <v>2.02070731356588</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>